--- a/ProbabilityAndStatistics/p3/Ejercicio 16 Distribución Probabilistica normal continua.xlsx
+++ b/ProbabilityAndStatistics/p3/Ejercicio 16 Distribución Probabilistica normal continua.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jorge\Desktop\Sem6ULSA\ULSA-6th-Semester\ProbabilityAndStatistics\p3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jorge\OneDrive\Escritorio\ULSA-6th-Semester\ProbabilityAndStatistics\p3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F3BC94B-E506-4429-B09F-118D11A48C2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B90FC7E4-9E5B-4A8A-9F2F-A9A9E80269B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NORMAL" sheetId="1" r:id="rId1"/>
@@ -274,7 +274,7 @@
     <numFmt numFmtId="164" formatCode="0.000%"/>
     <numFmt numFmtId="165" formatCode="0.0000%"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -294,6 +294,14 @@
       <color theme="1"/>
       <name val="MS Reference Sans Serif"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -350,7 +358,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -371,10 +379,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="1" builtinId="5"/>
+    <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -9926,7 +9935,7 @@
       <selection activeCell="I44" sqref="A27:I44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="20" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
@@ -10124,18 +10133,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A21:L211"/>
+  <dimension ref="A21:M211"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" zoomScale="115" workbookViewId="0">
-      <selection activeCell="D208" sqref="D208"/>
+    <sheetView topLeftCell="A7" zoomScale="115" workbookViewId="0">
+      <selection activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B21" s="3" t="s">
         <v>20</v>
       </c>
@@ -10143,7 +10152,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B22" s="3">
         <v>1</v>
       </c>
@@ -10164,7 +10173,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B23" s="3">
         <v>2</v>
       </c>
@@ -10185,7 +10194,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B24" s="3">
         <v>3</v>
       </c>
@@ -10199,7 +10208,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B25" s="3">
         <v>4</v>
       </c>
@@ -10213,15 +10222,16 @@
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B26" s="3">
         <v>5</v>
       </c>
       <c r="C26" s="3">
         <v>98</v>
       </c>
+      <c r="M26" s="12"/>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B27" s="3">
         <v>6</v>
       </c>
@@ -10229,7 +10239,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B28" s="3">
         <v>7</v>
       </c>
@@ -10237,7 +10247,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B29" s="3">
         <v>8</v>
       </c>
@@ -10245,7 +10255,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B30" s="3">
         <v>9</v>
       </c>
@@ -10700,11 +10710,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EE7CCC3-332F-456D-8C9F-9BCA7BC8C29C}">
   <dimension ref="A10:J52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L58" sqref="L58"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
